--- a/oakbrook_monitoring_sheet.xlsx
+++ b/oakbrook_monitoring_sheet.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B244"/>
+  <dimension ref="A1:B249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9967794.360000003</v>
+        <v>16680771.75</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9967794.360000003</v>
+        <v>10137542.28</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6543229.47</v>
       </c>
     </row>
     <row r="6">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>213537280.4900002</v>
+        <v>213537280.49</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104691701.6399999</v>
+        <v>104691701.64</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108845578.8500002</v>
+        <v>108845578.85</v>
       </c>
     </row>
     <row r="11">
@@ -626,175 +626,179 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Financial &amp; Performance Covenants</t>
+          <t>WA APR</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Financial Covenants</t>
-        </is>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>77.04150334380085</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>TNW</t>
-        </is>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ares</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>53.30653799205933</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30989072.96</v>
+        <v>23.73496535174152</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>30989072.96</v>
-      </c>
+      <c r="A28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
+          <t>Financial &amp; Performance Covenants</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Financial Covenants</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>TNW</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>30989072.96</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>30989072.96</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
           <t>Operational Liquidity</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
         <v>5827071.87</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Performance Covenants (rolling 3m avg)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Excess spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>27.12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Blended delinquencies</t>
-        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>4.84%</t>
-        </is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2000000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>Blended losses</t>
+          <t>Performance Covenants (rolling 3m avg)</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>23.28%</t>
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Excess spread</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>First Payment Default</t>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>27.12%</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>3.14%</t>
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Blended delinquencies</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>4.84%</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Concentration Limits</t>
+          <t>Blended losses</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Concentration Limits</t>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>23.28%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>WA Original Term</t>
+          <t>First Payment Default</t>
         </is>
       </c>
     </row>
@@ -804,1991 +808,2027 @@
           <t>Actuals</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>29.09695207244295</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3.14%</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>36</v>
-      </c>
+      <c r="A46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>WA Delphi Score</t>
+          <t>Concentration Limits</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>736.4361319937702</v>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Concentration Limits</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>700</v>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>WA Original Term</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Average Advance</t>
-        </is>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>29.09695207244295</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>Threshold</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2252.317491142003</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>WA Delphi Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>736.4361319937702</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>Threshold</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Concentration Limits</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>Original term &gt;48</t>
-        </is>
+      <c r="B54" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>6.16%</t>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Average Advance</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2252.317491142003</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>Threshold</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Near-Prime &amp; Delphi score &lt; 725</t>
-        </is>
+      <c r="B57" t="n">
+        <v>3600</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>14.37%</t>
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Concentration Limits</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>22.50%</t>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Original term &gt;48</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>Near-Prime &amp; Delphi score of &lt; 650</t>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6.16%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>Threshold</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4.59%</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>10.00%</t>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Near-Prime &amp; Delphi score &lt; 725</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Original UPB &gt; £5,000</t>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>14.37%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>Threshold</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>22.50%</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>25.00%</t>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Near-Prime &amp; Delphi score of &lt; 650</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Non-Prime &amp; Delphi Score of &lt; 500</t>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4.59%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>Threshold</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11.64%</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>12.50%</t>
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Original UPB &gt; £5,000</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>Receivables in arrears (1-30DPD)</t>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>4.90%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>Threshold</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3.51%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>8.00%</t>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Non-Prime &amp; Delphi Score of &lt; 500</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>Reperformed Covid-19 Modified</t>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>11.64%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>Threshold</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>12.50%</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>15.00%</t>
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Receivables in arrears (1-30DPD)</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>Reperformed Covid-19 Modified (Total Holiday &gt;3m)</t>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3.51%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>Threshold</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>8.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Reperformed Covid-19 Modified</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>0.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Prime &amp; Delphi score of &lt; 700</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>Threshold</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>15.00%</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>10.00%</t>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Reperformed Covid-19 Modified (Total Holiday &gt;3m)</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>Prime Receivables %</t>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0.01%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>Threshold</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>5.00%</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>10.00%</t>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Prime &amp; Delphi score of &lt; 700</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>Thin File Receivable %</t>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>Threshold</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>5.00%</t>
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Prime Receivables %</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>Single Borrower &gt; £10k/ Single Large Loan Borrower &gt; £15k</t>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0.03%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>Threshold</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Thin File Receivable %</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>Threshold</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>Back Book and Front Book</t>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>5.00%</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
+          <t>Single Borrower &gt; £10k/ Single Large Loan Borrower &gt; £15k</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Threshold</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Back Book and Front Book</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
           <t>Cumulative Defaults</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>Back Book Non Prime Cumulative Defaults</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>Cohort</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>2017 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>23.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Tier 1 Threshold</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Tier 2 Threshold</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>35.00%</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>2017 Q2</t>
+          <t>Cohort</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>22.25%</t>
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>2017 Q1</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>23.63%</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
           <t>35.00%</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="inlineStr">
-        <is>
-          <t>2017 Q3</t>
-        </is>
-      </c>
-    </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>22.67%</t>
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>2017 Q2</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>22.25%</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
           <t>35.00%</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="inlineStr">
-        <is>
-          <t>2017 Q4</t>
-        </is>
-      </c>
-    </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>22.91%</t>
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>2017 Q3</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>22.67%</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>35.00%</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="inlineStr">
-        <is>
-          <t>2018 Q1</t>
-        </is>
-      </c>
-    </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>22.23%</t>
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>2017 Q4</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>22.91%</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>35.00%</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>2018 Q2</t>
-        </is>
-      </c>
-    </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>21.25%</t>
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>2018 Q1</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>22.23%</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
           <t>35.00%</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="inlineStr">
-        <is>
-          <t>2018 Q3</t>
-        </is>
-      </c>
-    </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>20.97%</t>
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>2018 Q2</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>21.25%</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
           <t>35.00%</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="inlineStr">
-        <is>
-          <t>2018 Q4</t>
-        </is>
-      </c>
-    </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>21.93%</t>
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>2018 Q3</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>20.97%</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
           <t>35.00%</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>2019 Q1</t>
-        </is>
-      </c>
-    </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>22.14%</t>
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>2018 Q4</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>21.93%</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
           <t>35.00%</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>2019 Q2</t>
-        </is>
-      </c>
-    </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>21.62%</t>
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>2019 Q1</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>22.14%</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
           <t>35.00%</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>2019 Q3</t>
-        </is>
-      </c>
-    </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>21.48%</t>
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>2019 Q2</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>21.62%</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
           <t>35.00%</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="inlineStr">
-        <is>
-          <t>2019 Q4</t>
-        </is>
-      </c>
-    </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>21.68%</t>
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>2019 Q3</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>21.48%</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
           <t>35.00%</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="inlineStr">
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>2019 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>21.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Tier 1 Threshold</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>35.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
         <is>
           <t>2020 Q1</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>18.55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="inlineStr">
-        <is>
-          <t>Tier 1 Threshold</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>Tier 2 Threshold</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>2020 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>17.39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Tier 1 Threshold</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>2020 Q4</t>
+          <t>Tier 2 Threshold</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>16.78%</t>
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>2020 Q3</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="inlineStr">
-        <is>
-          <t>Tier 1 Threshold</t>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>17.39%</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>2021 Q1</t>
+          <t>Tier 2 Threshold</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>23.53%</t>
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>2020 Q4</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="inlineStr">
-        <is>
-          <t>Tier 1 Threshold</t>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>16.78%</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>2021 Q2</t>
+          <t>Tier 2 Threshold</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>25.08%</t>
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>2021 Q1</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="inlineStr">
-        <is>
-          <t>Tier 1 Threshold</t>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>23.53%</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>2021 Q3</t>
+          <t>Tier 2 Threshold</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>26.07%</t>
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>2021 Q2</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="inlineStr">
-        <is>
-          <t>Tier 1 Threshold</t>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>25.08%</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>2021 Q4</t>
+          <t>Tier 2 Threshold</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>26.07%</t>
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>2021 Q3</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>26.07%</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Tier 2 Threshold</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>35.00%</t>
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>2022 Q1</t>
+          <t>Tier 2 Threshold</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>27.54%</t>
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>2021 Q4</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>26.07%</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
           <t>35.00%</t>
         </is>
       </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>Back Book Near Prime Cumulative Defaults</t>
+          <t>2022 Q1</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="inlineStr">
-        <is>
-          <t>Cohort</t>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>27.54%</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="inlineStr">
-        <is>
-          <t>2018 Q1</t>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Tier 1 Threshold</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>Tier 2 Threshold</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>4.24%</t>
+          <t>35.00%</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Tier 1 Threshold</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>14.00%</t>
-        </is>
-      </c>
+      <c r="A180" s="2" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Tier 2 Threshold</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>17.00%</t>
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>Back Book Near Prime Cumulative Defaults</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>2018 Q2</t>
+          <t>Cohort</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>7.18%</t>
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>2018 Q1</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>14.00%</t>
+          <t>4.24%</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
+          <t>14.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
           <t>17.00%</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>2018 H2</t>
-        </is>
-      </c>
-    </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>9.72%</t>
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>2018 Q2</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>14.00%</t>
+          <t>7.18%</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
+          <t>14.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
           <t>17.00%</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="inlineStr">
-        <is>
-          <t>2019 Q1</t>
-        </is>
-      </c>
-    </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>9.21%</t>
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>2018 H2</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>14.00%</t>
+          <t>9.72%</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
+          <t>14.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
           <t>17.00%</t>
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="inlineStr">
-        <is>
-          <t>2019 Q2</t>
-        </is>
-      </c>
-    </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>9.12%</t>
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>2019 Q1</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>14.00%</t>
+          <t>9.21%</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
+          <t>14.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
           <t>17.00%</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>2019 Q3</t>
-        </is>
-      </c>
-    </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>9.06%</t>
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>2019 Q2</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>14.00%</t>
+          <t>9.12%</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
+          <t>14.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
           <t>17.00%</t>
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>2019 Q4</t>
-        </is>
-      </c>
-    </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>9.06%</t>
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>2019 Q3</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>14.00%</t>
+          <t>9.06%</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
+          <t>14.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
           <t>17.00%</t>
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="inlineStr">
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>2019 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>9.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Tier 1 Threshold</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>14.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>17.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
         <is>
           <t>2020 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>6.80%</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>Tier 1 Threshold</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="inlineStr">
-        <is>
-          <t>Tier 2 Threshold</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t>2020 Q3-Q4 &amp; 2021 Vintages</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>13.72%</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>17.56%</t>
+          <t>6.80%</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Tier 2 Threshold</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>18.85%</t>
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="inlineStr"/>
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>Front Book (Combined) Cumulative Defaults</t>
+          <t>2020 Q3-Q4 &amp; 2021 Vintages</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="inlineStr">
-        <is>
-          <t>Cohort</t>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>13.72%</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="inlineStr">
-        <is>
-          <t>2022 Q1</t>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Tier 1 Threshold</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>17.56%</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Actuals</t>
+          <t>Tier 2 Threshold</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>20.03%</t>
+          <t>18.85%</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Tier 1 Threshold</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>28.40%</t>
-        </is>
-      </c>
+      <c r="A219" s="2" t="inlineStr"/>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Tier 2 Threshold</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>33.10%</t>
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>Front Book (Combined) Cumulative Defaults</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>2022 Q2</t>
+          <t>Cohort</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>21.55%</t>
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>2022 Q1</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>28.30%</t>
+          <t>20.03%</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
+          <t>28.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
           <t>33.10%</t>
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="inlineStr">
-        <is>
-          <t>2022 Q3</t>
-        </is>
-      </c>
-    </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>21.64%</t>
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>2022 Q2</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>28.20%</t>
+          <t>21.55%</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>33.00%</t>
+          <t>28.30%</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="inlineStr">
-        <is>
-          <t>2022 Q4</t>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>33.10%</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>20.84%</t>
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>2022 Q3</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>27.80%</t>
+          <t>21.64%</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>32.40%</t>
+          <t>28.20%</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="inlineStr">
-        <is>
-          <t>2023 Q1</t>
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>33.00%</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>19.38%</t>
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>2022 Q4</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>26.90%</t>
+          <t>20.84%</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>31.40%</t>
+          <t>27.80%</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="inlineStr">
-        <is>
-          <t>2023 Q2</t>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>32.40%</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>18.49%</t>
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>2023 Q1</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>25.50%</t>
+          <t>19.38%</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>29.70%</t>
+          <t>26.90%</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="inlineStr">
-        <is>
-          <t>2023 Q3</t>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>31.40%</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>17.10%</t>
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>2023 Q2</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Tier 1 Threshold</t>
+          <t>Actuals</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>23.60%</t>
+          <t>18.49%</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Tier 2 Threshold</t>
+          <t>Tier 1 Threshold</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
+        <is>
+          <t>25.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>29.70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>2023 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>17.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Tier 1 Threshold</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>23.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Tier 2 Threshold</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
         <is>
           <t>27.60%</t>
         </is>

--- a/oakbrook_monitoring_sheet.xlsx
+++ b/oakbrook_monitoring_sheet.xlsx
@@ -487,7 +487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -540,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -551,17 +551,20 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -877,11 +880,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,13 +892,13 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -903,7 +906,7 @@
         <v>16680771.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -911,7 +914,7 @@
         <v>10137542.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -919,17 +922,17 @@
         <v>6543229.47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -937,7 +940,7 @@
         <v>213537280.49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -945,7 +948,7 @@
         <v>104691701.64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -953,23 +956,23 @@
         <v>108845578.85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -977,7 +980,7 @@
         <v>81688620.63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -985,7 +988,7 @@
         <v>25306226.74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -993,7 +996,7 @@
         <v>17208234.17905037</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>4048996.280474812</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1009,17 +1012,17 @@
         <v>4048996.280474812</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1148,7 @@
       <c r="A39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1159,7 +1162,7 @@
       <c r="A41" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1173,7 +1176,7 @@
       <c r="A43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1187,7 +1190,7 @@
       <c r="A45" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1289,7 +1292,7 @@
       <c r="A60" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1297,7 +1300,7 @@
       <c r="A61" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1311,7 +1314,7 @@
       <c r="A63" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1319,7 +1322,7 @@
       <c r="A64" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1333,7 +1336,7 @@
       <c r="A66" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1341,7 +1344,7 @@
       <c r="A67" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1355,7 +1358,7 @@
       <c r="A69" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1363,7 +1366,7 @@
       <c r="A70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1377,7 +1380,7 @@
       <c r="A72" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1385,7 +1388,7 @@
       <c r="A73" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1399,7 +1402,7 @@
       <c r="A75" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1407,7 +1410,7 @@
       <c r="A76" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1421,7 +1424,7 @@
       <c r="A78" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1429,7 +1432,7 @@
       <c r="A79" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1443,7 +1446,7 @@
       <c r="A81" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1451,7 +1454,7 @@
       <c r="A82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1465,7 +1468,7 @@
       <c r="A84" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1473,7 +1476,7 @@
       <c r="A85" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1487,7 +1490,7 @@
       <c r="A87" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1495,7 +1498,7 @@
       <c r="A88" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1509,7 +1512,7 @@
       <c r="A90" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1517,7 +1520,7 @@
       <c r="A91" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1531,7 +1534,7 @@
       <c r="A93" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1539,7 +1542,7 @@
       <c r="A94" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1581,7 +1584,7 @@
       <c r="A101" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1589,7 +1592,7 @@
       <c r="A102" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1597,7 +1600,7 @@
       <c r="A103" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1611,7 +1614,7 @@
       <c r="A105" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1619,7 +1622,7 @@
       <c r="A106" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1627,7 +1630,7 @@
       <c r="A107" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1641,7 +1644,7 @@
       <c r="A109" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1649,7 +1652,7 @@
       <c r="A110" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1657,7 +1660,7 @@
       <c r="A111" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1671,7 +1674,7 @@
       <c r="A113" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="8" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1679,7 +1682,7 @@
       <c r="A114" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1687,7 +1690,7 @@
       <c r="A115" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1701,7 +1704,7 @@
       <c r="A117" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="8" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1709,7 +1712,7 @@
       <c r="A118" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1717,7 +1720,7 @@
       <c r="A119" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1731,7 +1734,7 @@
       <c r="A121" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1739,7 +1742,7 @@
       <c r="A122" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1747,7 +1750,7 @@
       <c r="A123" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1761,7 +1764,7 @@
       <c r="A125" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1769,7 +1772,7 @@
       <c r="A126" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1777,7 +1780,7 @@
       <c r="A127" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1791,7 +1794,7 @@
       <c r="A129" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1799,7 +1802,7 @@
       <c r="A130" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1807,7 +1810,7 @@
       <c r="A131" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1821,7 +1824,7 @@
       <c r="A133" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1829,7 +1832,7 @@
       <c r="A134" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1837,7 +1840,7 @@
       <c r="A135" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1851,7 +1854,7 @@
       <c r="A137" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1859,7 +1862,7 @@
       <c r="A138" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1867,7 +1870,7 @@
       <c r="A139" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1881,7 +1884,7 @@
       <c r="A141" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1889,7 +1892,7 @@
       <c r="A142" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1897,7 +1900,7 @@
       <c r="A143" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1911,7 +1914,7 @@
       <c r="A145" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1919,7 +1922,7 @@
       <c r="A146" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1927,7 +1930,7 @@
       <c r="A147" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1941,7 +1944,7 @@
       <c r="A149" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1967,7 +1970,7 @@
       <c r="A153" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1993,7 +1996,7 @@
       <c r="A157" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2019,7 +2022,7 @@
       <c r="A161" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2045,7 +2048,7 @@
       <c r="A165" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2071,7 +2074,7 @@
       <c r="A169" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2097,7 +2100,7 @@
       <c r="A173" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2105,7 +2108,7 @@
       <c r="A174" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2113,7 +2116,7 @@
       <c r="A175" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2127,7 +2130,7 @@
       <c r="A177" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2135,7 +2138,7 @@
       <c r="A178" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2143,7 +2146,7 @@
       <c r="A179" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2173,7 +2176,7 @@
       <c r="A184" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="8" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2181,7 +2184,7 @@
       <c r="A185" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2189,7 +2192,7 @@
       <c r="A186" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2203,7 +2206,7 @@
       <c r="A188" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2211,7 +2214,7 @@
       <c r="A189" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2219,7 +2222,7 @@
       <c r="A190" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2233,7 +2236,7 @@
       <c r="A192" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="8" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2241,7 +2244,7 @@
       <c r="A193" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2249,7 +2252,7 @@
       <c r="A194" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2263,7 +2266,7 @@
       <c r="A196" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="8" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2271,7 +2274,7 @@
       <c r="A197" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2279,7 +2282,7 @@
       <c r="A198" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2293,7 +2296,7 @@
       <c r="A200" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2301,7 +2304,7 @@
       <c r="A201" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2309,7 +2312,7 @@
       <c r="A202" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2323,7 +2326,7 @@
       <c r="A204" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="8" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2331,7 +2334,7 @@
       <c r="A205" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2339,7 +2342,7 @@
       <c r="A206" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2353,7 +2356,7 @@
       <c r="A208" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="8" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2361,7 +2364,7 @@
       <c r="A209" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2369,7 +2372,7 @@
       <c r="A210" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2383,7 +2386,7 @@
       <c r="A212" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="8" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2409,7 +2412,7 @@
       <c r="A216" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2417,7 +2420,7 @@
       <c r="A217" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="8" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2425,7 +2428,7 @@
       <c r="A218" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="8" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2455,7 +2458,7 @@
       <c r="A223" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="8" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2463,7 +2466,7 @@
       <c r="A224" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="8" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2471,7 +2474,7 @@
       <c r="A225" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" s="8" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2485,7 +2488,7 @@
       <c r="A227" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="8" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2493,7 +2496,7 @@
       <c r="A228" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2501,7 +2504,7 @@
       <c r="A229" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="8" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2515,7 +2518,7 @@
       <c r="A231" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="8" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2523,7 +2526,7 @@
       <c r="A232" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="8" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2531,7 +2534,7 @@
       <c r="A233" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="8" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2545,7 +2548,7 @@
       <c r="A235" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="8" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2553,7 +2556,7 @@
       <c r="A236" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="8" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2561,7 +2564,7 @@
       <c r="A237" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2575,7 +2578,7 @@
       <c r="A239" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="8" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2583,7 +2586,7 @@
       <c r="A240" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="8" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2591,7 +2594,7 @@
       <c r="A241" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="8" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2605,7 +2608,7 @@
       <c r="A243" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="8" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2613,7 +2616,7 @@
       <c r="A244" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="8" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2621,7 +2624,7 @@
       <c r="A245" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="8" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2635,7 +2638,7 @@
       <c r="A247" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="8" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2643,7 +2646,7 @@
       <c r="A248" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="8" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2651,7 +2654,7 @@
       <c r="A249" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="8" t="s">
         <v>151</v>
       </c>
     </row>

--- a/oakbrook_monitoring_sheet.xlsx
+++ b/oakbrook_monitoring_sheet.xlsx
@@ -481,7 +481,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -513,22 +513,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -844,8 +847,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -854,7 +857,7 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -862,7 +865,7 @@
         <v>19863839.68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -870,7 +873,7 @@
         <v>11028248.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -878,17 +881,17 @@
         <v>8835591.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -896,7 +899,7 @@
         <v>215688725.52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -904,7 +907,7 @@
         <v>104845246.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -912,23 +915,23 @@
         <v>110843478.92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,7 +939,7 @@
         <v>81581853.2871497</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -944,7 +947,7 @@
         <v>12835498.93871274</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -952,7 +955,7 @@
         <v>8728139.278712738</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,7 +963,7 @@
         <v>2053679.83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,17 +971,17 @@
         <v>2053679.83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1101,7 @@
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1112,7 +1115,7 @@
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1126,7 +1129,7 @@
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1140,7 +1143,7 @@
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1242,7 +1245,7 @@
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1250,7 +1253,7 @@
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1264,7 +1267,7 @@
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1272,7 +1275,7 @@
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1286,7 +1289,7 @@
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1294,7 +1297,7 @@
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1308,7 +1311,7 @@
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1316,7 +1319,7 @@
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1330,7 +1333,7 @@
       <c r="A71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1338,7 +1341,7 @@
       <c r="A72" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1352,7 +1355,7 @@
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1360,7 +1363,7 @@
       <c r="A75" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1374,7 +1377,7 @@
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1382,7 +1385,7 @@
       <c r="A78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1396,7 +1399,7 @@
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1404,7 +1407,7 @@
       <c r="A81" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1418,7 +1421,7 @@
       <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1426,7 +1429,7 @@
       <c r="A84" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1440,7 +1443,7 @@
       <c r="A86" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1448,7 +1451,7 @@
       <c r="A87" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1462,7 +1465,7 @@
       <c r="A89" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1470,7 +1473,7 @@
       <c r="A90" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1484,7 +1487,7 @@
       <c r="A92" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1492,7 +1495,7 @@
       <c r="A93" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1534,7 +1537,7 @@
       <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1542,7 +1545,7 @@
       <c r="A101" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1550,7 +1553,7 @@
       <c r="A102" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1564,7 +1567,7 @@
       <c r="A104" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1572,7 +1575,7 @@
       <c r="A105" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1580,7 +1583,7 @@
       <c r="A106" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1594,7 +1597,7 @@
       <c r="A108" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1602,7 +1605,7 @@
       <c r="A109" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1610,7 +1613,7 @@
       <c r="A110" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1624,7 +1627,7 @@
       <c r="A112" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1632,7 +1635,7 @@
       <c r="A113" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1640,7 +1643,7 @@
       <c r="A114" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1654,7 +1657,7 @@
       <c r="A116" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1662,7 +1665,7 @@
       <c r="A117" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1670,7 +1673,7 @@
       <c r="A118" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1684,7 +1687,7 @@
       <c r="A120" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1692,7 +1695,7 @@
       <c r="A121" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1700,7 +1703,7 @@
       <c r="A122" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1714,7 +1717,7 @@
       <c r="A124" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1722,7 +1725,7 @@
       <c r="A125" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1730,7 +1733,7 @@
       <c r="A126" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1744,7 +1747,7 @@
       <c r="A128" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1752,7 +1755,7 @@
       <c r="A129" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1760,7 +1763,7 @@
       <c r="A130" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1774,7 +1777,7 @@
       <c r="A132" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1782,7 +1785,7 @@
       <c r="A133" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1790,7 +1793,7 @@
       <c r="A134" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1804,7 +1807,7 @@
       <c r="A136" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1812,7 +1815,7 @@
       <c r="A137" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1820,7 +1823,7 @@
       <c r="A138" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1834,7 +1837,7 @@
       <c r="A140" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1842,7 +1845,7 @@
       <c r="A141" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1850,7 +1853,7 @@
       <c r="A142" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1864,7 +1867,7 @@
       <c r="A144" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1872,7 +1875,7 @@
       <c r="A145" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1880,7 +1883,7 @@
       <c r="A146" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1894,7 +1897,7 @@
       <c r="A148" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1920,7 +1923,7 @@
       <c r="A152" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1946,7 +1949,7 @@
       <c r="A156" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1972,7 +1975,7 @@
       <c r="A160" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1998,7 +2001,7 @@
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2024,7 +2027,7 @@
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2050,7 +2053,7 @@
       <c r="A172" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2076,7 +2079,7 @@
       <c r="A176" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2084,7 +2087,7 @@
       <c r="A177" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2092,7 +2095,7 @@
       <c r="A178" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2122,7 +2125,7 @@
       <c r="A183" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2130,7 +2133,7 @@
       <c r="A184" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2138,7 +2141,7 @@
       <c r="A185" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2152,7 +2155,7 @@
       <c r="A187" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2160,7 +2163,7 @@
       <c r="A188" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2168,7 +2171,7 @@
       <c r="A189" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2182,7 +2185,7 @@
       <c r="A191" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2190,7 +2193,7 @@
       <c r="A192" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2198,7 +2201,7 @@
       <c r="A193" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2212,7 +2215,7 @@
       <c r="A195" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2220,7 +2223,7 @@
       <c r="A196" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2228,7 +2231,7 @@
       <c r="A197" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2242,7 +2245,7 @@
       <c r="A199" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2250,7 +2253,7 @@
       <c r="A200" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2258,7 +2261,7 @@
       <c r="A201" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2272,7 +2275,7 @@
       <c r="A203" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2280,7 +2283,7 @@
       <c r="A204" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2288,7 +2291,7 @@
       <c r="A205" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2302,7 +2305,7 @@
       <c r="A207" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2310,7 +2313,7 @@
       <c r="A208" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2318,7 +2321,7 @@
       <c r="A209" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2332,7 +2335,7 @@
       <c r="A211" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2358,7 +2361,7 @@
       <c r="A215" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2400,7 +2403,7 @@
       <c r="A222" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2408,7 +2411,7 @@
       <c r="A223" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2416,7 +2419,7 @@
       <c r="A224" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2430,7 +2433,7 @@
       <c r="A226" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2438,7 +2441,7 @@
       <c r="A227" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2446,7 +2449,7 @@
       <c r="A228" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2460,7 +2463,7 @@
       <c r="A230" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2468,7 +2471,7 @@
       <c r="A231" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2476,7 +2479,7 @@
       <c r="A232" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2490,7 +2493,7 @@
       <c r="A234" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2498,7 +2501,7 @@
       <c r="A235" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2506,7 +2509,7 @@
       <c r="A236" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2520,7 +2523,7 @@
       <c r="A238" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2528,7 +2531,7 @@
       <c r="A239" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2536,7 +2539,7 @@
       <c r="A240" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2550,7 +2553,7 @@
       <c r="A242" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2558,7 +2561,7 @@
       <c r="A243" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2566,7 +2569,7 @@
       <c r="A244" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2580,7 +2583,7 @@
       <c r="A246" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2588,7 +2591,7 @@
       <c r="A247" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2596,7 +2599,7 @@
       <c r="A248" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="6" t="s">
         <v>147</v>
       </c>
     </row>

--- a/oakbrook_monitoring_sheet.xlsx
+++ b/oakbrook_monitoring_sheet.xlsx
@@ -439,7 +439,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21070930.15</v>
+        <v>23589205.05</v>
       </c>
     </row>
     <row r="3">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11595540.13</v>
+        <v>12798874.58</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9475390.02</v>
+        <v>10790330.47</v>
       </c>
     </row>
     <row r="5">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>221226131.89</v>
+        <v>226329478.62</v>
       </c>
     </row>
     <row r="8">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105483833.65</v>
+        <v>106835116.29</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115742298.24</v>
+        <v>119494362.33</v>
       </c>
     </row>
     <row r="10">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81931853.2871497</v>
+        <v>82930332.0071497</v>
       </c>
     </row>
     <row r="14">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94145067.68999998</v>
+        <v>97955830.00999998</v>
       </c>
     </row>
     <row r="21">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16152826.51</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.33208030009099</v>
+        <v>38.36175787029699</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.13101567882766</v>
+        <v>54.5910283895756</v>
       </c>
     </row>
     <row r="26">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23.9334352353275</v>
+        <v>23.85181807547456</v>
       </c>
     </row>
     <row r="27">
@@ -685,13 +685,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Actuals</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>4490320.699999999</v>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Actuals</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -726,7 +723,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>28.93%</t>
+          <t>29.67%</t>
         </is>
       </c>
     </row>
@@ -764,7 +761,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>24.61%</t>
+          <t>24.90%</t>
         </is>
       </c>
     </row>
@@ -783,7 +780,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3.14%</t>
+          <t>3.26%</t>
         </is>
       </c>
     </row>
@@ -818,7 +815,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>28.72321441505379</v>
+        <v>28.56709602348285</v>
       </c>
     </row>
     <row r="50">
@@ -845,7 +842,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>732.0672473061538</v>
+        <v>730.4072408515789</v>
       </c>
     </row>
     <row r="53">
@@ -872,7 +869,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2256.685180824217</v>
+        <v>2260.582755498804</v>
       </c>
     </row>
     <row r="56">
@@ -907,7 +904,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5.43%</t>
+          <t>5.12%</t>
         </is>
       </c>
     </row>
@@ -938,7 +935,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12.50%</t>
+          <t>11.90%</t>
         </is>
       </c>
     </row>
@@ -969,7 +966,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4.05%</t>
+          <t>3.73%</t>
         </is>
       </c>
     </row>
@@ -1000,7 +997,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4.52%</t>
+          <t>4.33%</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1028,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>12.37%</t>
+          <t>12.89%</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1059,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>3.20%</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1183,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.03%</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2124,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>27.60%</t>
+          <t>27.61%</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2528,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>11.92%</t>
+          <t>11.25%</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2588,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>20.18%</t>
+          <t>20.23%</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2631,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>21.72%</t>
+          <t>21.80%</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2655,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>33.10%</t>
+          <t>33.20%</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2674,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>21.97%</t>
+          <t>22.01%</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2717,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>21.17%</t>
+          <t>21.24%</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2760,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>20.06%</t>
+          <t>20.20%</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2803,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>19.27%</t>
+          <t>19.50%</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2815,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>26.90%</t>
+          <t>27.20%</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2827,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>31.40%</t>
+          <t>31.80%</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2846,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>18.22%</t>
+          <t>18.54%</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2858,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>25.50%</t>
+          <t>26.10%</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2870,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>29.70%</t>
+          <t>30.50%</t>
         </is>
       </c>
     </row>
